--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,6 +11,10 @@
     <sheet name="questions" sheetId="2" r:id="rId2"/>
     <sheet name="answer" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">answer!$A$71:$C$79</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">answer!$D$71:$F$71</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId4"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>Sales Data:</t>
   </si>
@@ -262,6 +266,15 @@
   </si>
   <si>
     <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Department Based on ID</t>
+  </si>
+  <si>
+    <t>For others questions the data given is not proper.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -369,11 +382,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,6 +417,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +857,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="1500"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="1500" count="16">
+        <n v="1000"/>
+        <n v="500"/>
+        <n v="1500"/>
+        <n v="300"/>
+        <n v="700"/>
+        <n v="200"/>
+        <n v="1200"/>
+        <n v="800"/>
+        <n v="1100"/>
+        <n v="400"/>
+        <n v="250"/>
+        <n v="900"/>
+        <n v="600"/>
+        <n v="1300"/>
+        <n v="350"/>
+        <n v="750"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Discount Percentage" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="40"/>
@@ -857,7 +905,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
   <r>
     <x v="0"/>
-    <n v="1000"/>
+    <x v="0"/>
     <n v="10"/>
     <n v="900"/>
     <n v="1"/>
@@ -868,7 +916,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="500"/>
+    <x v="1"/>
     <n v="20"/>
     <n v="400"/>
     <n v="2"/>
@@ -879,7 +927,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1500"/>
+    <x v="2"/>
     <n v="10"/>
     <n v="1350"/>
     <n v="3"/>
@@ -890,7 +938,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="300"/>
+    <x v="3"/>
     <n v="5"/>
     <n v="285"/>
     <n v="4"/>
@@ -901,7 +949,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="700"/>
+    <x v="4"/>
     <n v="5"/>
     <n v="665"/>
     <n v="5"/>
@@ -912,7 +960,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="200"/>
+    <x v="5"/>
     <n v="11"/>
     <n v="178"/>
     <n v="6"/>
@@ -923,7 +971,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1200"/>
+    <x v="6"/>
     <n v="25"/>
     <n v="900"/>
     <n v="7"/>
@@ -934,7 +982,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="800"/>
+    <x v="7"/>
     <n v="30"/>
     <n v="560"/>
     <n v="8"/>
@@ -945,7 +993,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1100"/>
+    <x v="8"/>
     <n v="30"/>
     <n v="770"/>
     <n v="9"/>
@@ -956,7 +1004,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="400"/>
+    <x v="9"/>
     <n v="40"/>
     <n v="240"/>
     <n v="10"/>
@@ -967,7 +1015,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="250"/>
+    <x v="10"/>
     <n v="10"/>
     <n v="225"/>
     <n v="11"/>
@@ -978,7 +1026,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="900"/>
+    <x v="11"/>
     <n v="20"/>
     <n v="720"/>
     <n v="12"/>
@@ -989,7 +1037,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="600"/>
+    <x v="12"/>
     <n v="5"/>
     <n v="570"/>
     <n v="13"/>
@@ -1000,7 +1048,7 @@
   </r>
   <r>
     <x v="0"/>
-    <n v="1300"/>
+    <x v="13"/>
     <n v="25"/>
     <n v="975"/>
     <n v="14"/>
@@ -1011,7 +1059,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="350"/>
+    <x v="14"/>
     <n v="30"/>
     <n v="245"/>
     <n v="15"/>
@@ -1022,7 +1070,7 @@
   </r>
   <r>
     <x v="1"/>
-    <n v="750"/>
+    <x v="15"/>
     <n v="35"/>
     <n v="487.5"/>
     <n v="16"/>
@@ -1035,6 +1083,74 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L25:M29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="5"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="1" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J25:K29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -1046,7 +1162,27 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="5"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1369,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1849,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1864,15 +2000,17 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1885,8 +2023,11 @@
       <c r="D4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1900,8 +2041,12 @@
         <f>CONCATENATE(A5, " ",B5)</f>
         <v>Alex Saini</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E5" t="str">
+        <f>IF(C5&gt;=70, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1915,8 +2060,12 @@
         <f t="shared" ref="D6:D14" si="0">CONCATENATE(A6, " ",B6)</f>
         <v>Brad Kumar</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E14" si="1">IF(C6&gt;=70, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1930,8 +2079,12 @@
         <f t="shared" si="0"/>
         <v>Chloe gawai</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1945,8 +2098,12 @@
         <f t="shared" si="0"/>
         <v>Daniel Ali</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -1960,8 +2117,12 @@
         <f t="shared" si="0"/>
         <v>Emma Watson</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2136,12 @@
         <f t="shared" si="0"/>
         <v>Frank Pandey</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1990,8 +2155,12 @@
         <f t="shared" si="0"/>
         <v>Grace Sharma</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -2005,8 +2174,12 @@
         <f t="shared" si="0"/>
         <v>Henry Cavil</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -2020,8 +2193,12 @@
         <f t="shared" si="0"/>
         <v>Isabelle Swift</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -2035,20 +2212,24 @@
         <f t="shared" si="0"/>
         <v>Jack Warner</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="C15">
         <f>AVERAGE(C5:C14)</f>
         <v>80.3</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2082,8 +2263,14 @@
       <c r="K25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -2120,8 +2307,14 @@
       <c r="K26" s="8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.12658227848101267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2325,7 @@
         <v>20</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:D41" si="1">SUM(B27:B42-((C27:C42)/100)*(B27:B42))</f>
+        <f t="shared" ref="D27:D41" si="2">SUM(B27:B42-((C27:C42)/100)*(B27:B42))</f>
         <v>400</v>
       </c>
       <c r="E27">
@@ -2158,8 +2351,14 @@
       <c r="K27" s="8">
         <v>3350</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.28270042194092826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +2369,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1350</v>
       </c>
       <c r="E28">
@@ -2180,7 +2379,7 @@
         <v>300</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G41" si="2">PRODUCT(E28,F28)</f>
+        <f>PRODUCT(E28,F28)</f>
         <v>900</v>
       </c>
       <c r="H28" t="s">
@@ -2196,8 +2395,14 @@
       <c r="K28" s="8">
         <v>7000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.59071729957805907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>285</v>
       </c>
       <c r="E29">
@@ -2218,7 +2423,7 @@
         <v>400</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E29,F29)</f>
         <v>1600</v>
       </c>
       <c r="J29" s="7" t="s">
@@ -2227,8 +2432,14 @@
       <c r="K29" s="8">
         <v>11850</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>665</v>
       </c>
       <c r="E30">
@@ -2249,11 +2460,11 @@
         <v>500</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E30,F30)</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -2264,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="E31">
@@ -2274,11 +2485,11 @@
         <v>600</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E31,F31)</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -2289,7 +2500,7 @@
         <v>25</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="E32">
@@ -2299,7 +2510,7 @@
         <v>700</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E32,F32)</f>
         <v>4900</v>
       </c>
     </row>
@@ -2314,7 +2525,7 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>560</v>
       </c>
       <c r="E33">
@@ -2324,7 +2535,7 @@
         <v>800</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E33,F33)</f>
         <v>6400</v>
       </c>
     </row>
@@ -2339,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
       <c r="E34">
@@ -2349,7 +2560,7 @@
         <v>900</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E34,F34)</f>
         <v>8100</v>
       </c>
     </row>
@@ -2364,7 +2575,7 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="E35">
@@ -2374,7 +2585,7 @@
         <v>1000</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E35,F35)</f>
         <v>10000</v>
       </c>
     </row>
@@ -2389,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="E36">
@@ -2399,7 +2610,7 @@
         <v>1100</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E36,F36)</f>
         <v>12100</v>
       </c>
     </row>
@@ -2414,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="E37">
@@ -2424,7 +2635,7 @@
         <v>1200</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E37,F37)</f>
         <v>14400</v>
       </c>
     </row>
@@ -2439,7 +2650,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>570</v>
       </c>
       <c r="E38">
@@ -2449,7 +2660,7 @@
         <v>1300</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E38,F38)</f>
         <v>16900</v>
       </c>
     </row>
@@ -2464,7 +2675,7 @@
         <v>25</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975</v>
       </c>
       <c r="E39">
@@ -2474,7 +2685,7 @@
         <v>1400</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E39,F39)</f>
         <v>19600</v>
       </c>
     </row>
@@ -2489,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="E40">
@@ -2499,7 +2710,7 @@
         <v>1500</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E40,F40)</f>
         <v>22500</v>
       </c>
     </row>
@@ -2514,7 +2725,7 @@
         <v>35</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>487.5</v>
       </c>
       <c r="E41">
@@ -2524,8 +2735,286 @@
         <v>1600</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(E41,F41)</f>
         <v>25600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(A53,A:C, 3,FALSE )</f>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(A54,A:C, 3,FALSE )</f>
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(A55,A:C, 3,FALSE )</f>
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(A56,A:C, 3,FALSE )</f>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(A57,A:C, 3,FALSE )</f>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(A58,A:C, 3,FALSE )</f>
+        <v>IT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(A59,A:C, 3,FALSE )</f>
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(A60,A:C, 3,FALSE )</f>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="71" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="4">
+        <v>850</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="4">
+        <v>650</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="4">
+        <v>950</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A78" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="4">
+        <v>750</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
